--- a/docs/sw/sw-WoundUnderminingAssessment.xlsx
+++ b/docs/sw/sw-WoundUnderminingAssessment.xlsx
@@ -159,7 +159,8 @@
     <t>sw-WoundUnderminingAssessment</t>
   </si>
   <si>
-    <t>Assessment of deep tissue (subcutaneous fat and muscle) damage around the wound margin. The undermining length and clock direction arrays must be the same length, and the order in the arrays is significant*; the elements at the same array position shall be interpreted as pairs.</t>
+    <t>Assessment of deep tissue (subcutaneous fat and muscle) damage around the wound margin. If there is more than one undermining The undermining length and clock direction arrays must be the same length, and the order in the arrays is significant*; the elements at the same array position shall be interpreted as pairs.
+*See https://www.hl7.org/fhir/xml.html: When an element is allowed to repeat, the elements are ordered, and the technical infrastructure needs to be able to access the items in the right order. https://www.hl7.org/fhir/json.html The order of properties of an object is not significant in the JSON representation, though order within an array SHALL be maintained.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as lab reports, etc.</t>
